--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1218817.783911902</v>
+        <v>1214371.361063303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.0798671</v>
+        <v>29913606.07986708</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938642</v>
+        <v>7134934.855938643</v>
       </c>
     </row>
     <row r="9">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>94.99908193808733</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.246190144665247</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,7 +1545,7 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
         <v>71.38780296833761</v>
@@ -1584,16 +1584,16 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>174.2021348238824</v>
       </c>
       <c r="X13" t="n">
-        <v>217.6173301846933</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.7886384621265</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>388.4157158796325</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>158.1432178623843</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
         <v>71.38780296833761</v>
@@ -1821,19 +1821,19 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>117.4353662952032</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.6668683142315</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
-        <v>43.55888673537818</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.0663280430922</v>
       </c>
       <c r="T17" t="n">
         <v>209.8302460968812</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>71.26448785191427</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>80.19101321112832</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.38780296833762</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425557</v>
+        <v>5.626053133425572</v>
       </c>
       <c r="S19" t="n">
         <v>152.5650864830671</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>212.2888840402775</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.0663280430922</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.7220681870229</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.20248474620058</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>161.0391518367258</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.626053133425572</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3329370021073</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>341.2838612928383</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
         <v>255.6089649852995</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>209.4621215852601</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.93267016885823</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H25" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425572</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S25" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T25" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3329370021073</v>
+        <v>114.4854773711534</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>250.8032477265347</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>226.072844900151</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
         <v>274.1005558094662</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.7995174407108</v>
+        <v>12.30490753598971</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.626053133425572</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>152.5650864830671</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>199.5019602140977</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.5732486798095</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>80.0813322044408</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.626053133425572</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S31" t="n">
         <v>152.5650864830671</v>
@@ -3009,10 +3009,10 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>69.8878757056837</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3034,7 +3034,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>8.488336630381648</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>46.01139196371086</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.6620360848888</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3195,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.626053133425572</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S34" t="n">
         <v>152.5650864830671</v>
@@ -3246,13 +3246,13 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>5.510713049953464</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3268,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>391.9877439596161</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.4332477494534</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.0663280430922</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>14.40024293730135</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>123.4119454878156</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
-        <v>71.38780296833762</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425572</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S37" t="n">
         <v>152.5650864830671</v>
@@ -3480,10 +3480,10 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>214.4219709814236</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>175.1756558245164</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6838381111991</v>
+        <v>41.19131844346167</v>
       </c>
       <c r="H40" t="n">
-        <v>30.85540402930617</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.626053133425572</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.0153716433569</v>
@@ -3720,7 +3720,7 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>284.6394878002203</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.0663280430922</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>212.9165694007145</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T42" t="n">
         <v>136.0833327936195</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>141.4608488699058</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.38780296833762</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.626053133425572</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V43" t="n">
-        <v>16.1566228424283</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,7 +3994,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.0663280430922</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
-        <v>40.78754523947973</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>131.6993104854901</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T45" t="n">
         <v>136.0833327936195</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H46" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I46" t="n">
-        <v>71.38780296833762</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425572</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5650864830671</v>
+        <v>81.25498376504906</v>
       </c>
       <c r="T46" t="n">
-        <v>120.0155504703259</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U46" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>895.8582195215687</v>
+        <v>467.1259285392687</v>
       </c>
       <c r="C11" t="n">
-        <v>468.9574895348688</v>
+        <v>467.1259285392687</v>
       </c>
       <c r="D11" t="n">
-        <v>468.9574895348688</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="E11" t="n">
-        <v>468.9574895348688</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="F11" t="n">
         <v>43.83330772426897</v>
@@ -5038,16 +5038,16 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I11" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J11" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050658</v>
       </c>
       <c r="M11" t="n">
         <v>1043.801082832443</v>
@@ -5074,19 +5074,19 @@
         <v>2134.022630614365</v>
       </c>
       <c r="U11" t="n">
-        <v>2132.763852690461</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V11" t="n">
-        <v>2132.763852690461</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="W11" t="n">
-        <v>2132.763852690461</v>
+        <v>1380.141866040962</v>
       </c>
       <c r="X11" t="n">
-        <v>1721.043853858208</v>
+        <v>968.421867208709</v>
       </c>
       <c r="Y11" t="n">
-        <v>1315.706583813099</v>
+        <v>563.0845971635994</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I12" t="n">
-        <v>64.84342863053151</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J12" t="n">
-        <v>146.0262857709434</v>
+        <v>169.4835916153553</v>
       </c>
       <c r="K12" t="n">
-        <v>297.480878256946</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L12" t="n">
-        <v>508.6576814496918</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M12" t="n">
-        <v>982.7079039592064</v>
+        <v>781.6938471317156</v>
       </c>
       <c r="N12" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O12" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P12" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q12" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R12" t="n">
         <v>1815.956238873899</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>791.3219530184812</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="C13" t="n">
-        <v>619.3493898973971</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D13" t="n">
-        <v>619.3493898973971</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E13" t="n">
-        <v>453.1411840502507</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F13" t="n">
-        <v>281.2794098248111</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G13" t="n">
-        <v>115.9421996114787</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H13" t="n">
         <v>115.9421996114787</v>
@@ -5199,16 +5199,16 @@
         <v>43.83330772426897</v>
       </c>
       <c r="J13" t="n">
-        <v>87.13587819270244</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>418.3963088502693</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L13" t="n">
-        <v>907.1075935917629</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M13" t="n">
-        <v>1439.600757751073</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N13" t="n">
         <v>1948.541484080738</v>
@@ -5232,19 +5232,19 @@
         <v>1792.466889991378</v>
       </c>
       <c r="U13" t="n">
-        <v>1512.33261019127</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="V13" t="n">
-        <v>1512.33261019127</v>
+        <v>1510.755422599407</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.480206363783</v>
+        <v>1334.793670252051</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.664721328739</v>
+        <v>1334.793670252051</v>
       </c>
       <c r="Y13" t="n">
-        <v>791.3219530184812</v>
+        <v>1108.450901941793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1098.49397772656</v>
+        <v>1321.835159373711</v>
       </c>
       <c r="C14" t="n">
-        <v>1098.49397772656</v>
+        <v>894.9344293870112</v>
       </c>
       <c r="D14" t="n">
-        <v>675.2013569115602</v>
+        <v>894.9344293870112</v>
       </c>
       <c r="E14" t="n">
-        <v>675.2013569115602</v>
+        <v>468.9574895348687</v>
       </c>
       <c r="F14" t="n">
-        <v>675.2013569115602</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="G14" t="n">
-        <v>272.9127405142958</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804922</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M14" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N14" t="n">
         <v>1365.479726947677</v>
@@ -5296,13 +5296,13 @@
         <v>1667.064768900564</v>
       </c>
       <c r="P14" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151229</v>
       </c>
       <c r="Q14" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681864</v>
       </c>
       <c r="R14" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="S14" t="n">
         <v>2134.022630614365</v>
@@ -5311,19 +5311,19 @@
         <v>2134.022630614365</v>
       </c>
       <c r="U14" t="n">
-        <v>1875.831756891841</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V14" t="n">
-        <v>1518.34234201809</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="W14" t="n">
-        <v>1518.34234201809</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="X14" t="n">
-        <v>1518.34234201809</v>
+        <v>1741.683523665241</v>
       </c>
       <c r="Y14" t="n">
-        <v>1518.34234201809</v>
+        <v>1741.683523665241</v>
       </c>
     </row>
     <row r="15">
@@ -5348,13 +5348,13 @@
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.61386626702638</v>
+        <v>86.61386626702637</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053151</v>
+        <v>64.84342863053149</v>
       </c>
       <c r="J15" t="n">
         <v>146.0262857709434</v>
@@ -5363,10 +5363,10 @@
         <v>297.480878256946</v>
       </c>
       <c r="L15" t="n">
-        <v>733.1290441215945</v>
+        <v>508.6576814496918</v>
       </c>
       <c r="M15" t="n">
-        <v>982.7079039592064</v>
+        <v>758.2365412873038</v>
       </c>
       <c r="N15" t="n">
         <v>1241.233778370454</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.8043885451868</v>
+        <v>1078.025557333146</v>
       </c>
       <c r="C16" t="n">
-        <v>610.8043885451868</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D16" t="n">
-        <v>447.4876156719575</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E16" t="n">
-        <v>281.2794098248111</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F16" t="n">
-        <v>281.2794098248111</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G16" t="n">
-        <v>115.9421996114787</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H16" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="J16" t="n">
         <v>165.0575948409233</v>
@@ -5442,22 +5442,22 @@
         <v>496.3180254984902</v>
       </c>
       <c r="L16" t="n">
-        <v>608.6404166488187</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M16" t="n">
-        <v>1141.133580808129</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N16" t="n">
-        <v>1656.572487471408</v>
+        <v>1634.928458220693</v>
       </c>
       <c r="O16" t="n">
-        <v>1902.310538521926</v>
+        <v>1740.07101003978</v>
       </c>
       <c r="P16" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230911</v>
       </c>
       <c r="Q16" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="R16" t="n">
         <v>2185.982504260493</v>
@@ -5469,19 +5469,19 @@
         <v>1792.466889991378</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.33261019127</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.621142799299</v>
+        <v>1510.755422599407</v>
       </c>
       <c r="W16" t="n">
-        <v>955.7687389718117</v>
+        <v>1510.755422599407</v>
       </c>
       <c r="X16" t="n">
-        <v>837.1471568554448</v>
+        <v>1268.191526045212</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.8043885451868</v>
+        <v>1268.191526045212</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>913.4134204268141</v>
+        <v>1258.544743314528</v>
       </c>
       <c r="C17" t="n">
-        <v>913.4134204268141</v>
+        <v>831.6440133278279</v>
       </c>
       <c r="D17" t="n">
-        <v>490.1207996118144</v>
+        <v>831.6440133278279</v>
       </c>
       <c r="E17" t="n">
-        <v>490.1207996118144</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="F17" t="n">
-        <v>490.1207996118144</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G17" t="n">
-        <v>87.83218321454996</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
         <v>87.10761271643844</v>
@@ -5518,49 +5518,49 @@
         <v>228.5477172037495</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N17" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P17" t="n">
-        <v>1918.854212151229</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q17" t="n">
-        <v>2100.109526681864</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R17" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2191.665386213448</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T17" t="n">
-        <v>1979.715642681245</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U17" t="n">
-        <v>1721.52476895872</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V17" t="n">
-        <v>1721.52476895872</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="W17" t="n">
-        <v>1325.133419259067</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="X17" t="n">
-        <v>913.4134204268141</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="Y17" t="n">
-        <v>913.4134204268141</v>
+        <v>1258.544743314528</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.61386626702637</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>64.84342863053149</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J18" t="n">
-        <v>146.0262857709434</v>
+        <v>265.0421481579407</v>
       </c>
       <c r="K18" t="n">
-        <v>297.480878256946</v>
+        <v>416.4967406439432</v>
       </c>
       <c r="L18" t="n">
-        <v>733.1290441215945</v>
+        <v>627.673543836689</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743009</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>296.6961053952927</v>
+        <v>414.877742943809</v>
       </c>
       <c r="C19" t="n">
-        <v>296.6961053952927</v>
+        <v>414.877742943809</v>
       </c>
       <c r="D19" t="n">
-        <v>296.6961053952927</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="E19" t="n">
-        <v>215.6950819497085</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="F19" t="n">
-        <v>43.83330772426896</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="G19" t="n">
-        <v>43.83330772426896</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H19" t="n">
-        <v>43.83330772426896</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K19" t="n">
-        <v>249.0354163844682</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L19" t="n">
-        <v>361.3578075347967</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M19" t="n">
-        <v>893.8509716941068</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N19" t="n">
-        <v>1106.709457826328</v>
+        <v>1948.541484080738</v>
       </c>
       <c r="O19" t="n">
-        <v>1589.554333948618</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P19" t="n">
-        <v>1989.180585230911</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
         <v>2185.982504260493</v>
@@ -5706,19 +5706,19 @@
         <v>1792.466889991378</v>
       </c>
       <c r="U19" t="n">
-        <v>1512.332610191269</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="V19" t="n">
-        <v>1230.621142799298</v>
+        <v>1230.621142799299</v>
       </c>
       <c r="W19" t="n">
-        <v>955.7687389718112</v>
+        <v>955.7687389718117</v>
       </c>
       <c r="X19" t="n">
-        <v>713.2048424176163</v>
+        <v>713.2048424176168</v>
       </c>
       <c r="Y19" t="n">
-        <v>486.8620741073584</v>
+        <v>486.8620741073588</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1574.092294076666</v>
+        <v>685.1672539132694</v>
       </c>
       <c r="C20" t="n">
-        <v>1574.092294076666</v>
+        <v>258.2665239265695</v>
       </c>
       <c r="D20" t="n">
-        <v>1574.092294076666</v>
+        <v>258.2665239265695</v>
       </c>
       <c r="E20" t="n">
-        <v>1148.115354224523</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="F20" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="G20" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804922</v>
       </c>
       <c r="L20" t="n">
         <v>727.9824581050657</v>
@@ -5767,37 +5767,37 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O20" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P20" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151229</v>
       </c>
       <c r="Q20" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681864</v>
       </c>
       <c r="R20" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="S20" t="n">
         <v>2134.022630614365</v>
       </c>
       <c r="T20" t="n">
-        <v>2134.022630614365</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U20" t="n">
-        <v>1875.831756891841</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="V20" t="n">
-        <v>1875.831756891841</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="W20" t="n">
-        <v>1875.831756891841</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="X20" t="n">
-        <v>1875.831756891841</v>
+        <v>1510.352888249909</v>
       </c>
       <c r="Y20" t="n">
-        <v>1574.092294076666</v>
+        <v>1105.015618204799</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>179.5705527131623</v>
       </c>
       <c r="G21" t="n">
-        <v>86.61386626702638</v>
+        <v>86.61386626702637</v>
       </c>
       <c r="H21" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I21" t="n">
-        <v>64.84342863053149</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J21" t="n">
-        <v>146.0262857709434</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K21" t="n">
-        <v>297.480878256946</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L21" t="n">
-        <v>508.6576814496917</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M21" t="n">
-        <v>758.2365412873037</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N21" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O21" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P21" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R21" t="n">
         <v>1815.956238873899</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>387.6676450707926</v>
+        <v>541.788453654669</v>
       </c>
       <c r="C22" t="n">
-        <v>215.6950819497085</v>
+        <v>369.8158905335849</v>
       </c>
       <c r="D22" t="n">
-        <v>215.6950819497085</v>
+        <v>206.4991176603556</v>
       </c>
       <c r="E22" t="n">
-        <v>215.6950819497085</v>
+        <v>206.4991176603556</v>
       </c>
       <c r="F22" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="G22" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="H22" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="J22" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K22" t="n">
-        <v>249.0354163844681</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L22" t="n">
-        <v>737.7467011259616</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M22" t="n">
-        <v>989.3034740049295</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N22" t="n">
-        <v>1106.709457826328</v>
+        <v>1948.541484080738</v>
       </c>
       <c r="O22" t="n">
-        <v>1589.554333948618</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P22" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.55408260881</v>
       </c>
       <c r="Q22" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="S22" t="n">
-        <v>2031.876356297799</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T22" t="n">
-        <v>1792.466889991378</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="U22" t="n">
-        <v>1512.33261019127</v>
+        <v>1757.424958450646</v>
       </c>
       <c r="V22" t="n">
-        <v>1230.621142799299</v>
+        <v>1475.713491058674</v>
       </c>
       <c r="W22" t="n">
-        <v>955.7687389718117</v>
+        <v>1200.861087231187</v>
       </c>
       <c r="X22" t="n">
-        <v>713.2048424176168</v>
+        <v>958.2971906769925</v>
       </c>
       <c r="Y22" t="n">
-        <v>486.8620741073588</v>
+        <v>731.9544223667345</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>896.7109775631113</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="C23" t="n">
-        <v>469.8102475764114</v>
+        <v>1236.981283372937</v>
       </c>
       <c r="D23" t="n">
-        <v>469.8102475764114</v>
+        <v>813.6886625579377</v>
       </c>
       <c r="E23" t="n">
-        <v>43.83330772426896</v>
+        <v>813.6886625579377</v>
       </c>
       <c r="F23" t="n">
-        <v>43.83330772426896</v>
+        <v>388.5644807473379</v>
       </c>
       <c r="G23" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643835</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J23" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7747784804922</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L23" t="n">
-        <v>727.9824581050655</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M23" t="n">
         <v>1043.801082832443</v>
@@ -6007,34 +6007,34 @@
         <v>1667.064768900564</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.854212151229</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681864</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R23" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S23" t="n">
-        <v>2191.665386213448</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T23" t="n">
-        <v>2191.665386213448</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U23" t="n">
-        <v>1933.474512490923</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V23" t="n">
-        <v>1933.474512490923</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="W23" t="n">
-        <v>1721.896611899751</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="X23" t="n">
-        <v>1721.896611899751</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="Y23" t="n">
-        <v>1316.559341854641</v>
+        <v>1663.882013359637</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>179.5705527131623</v>
       </c>
       <c r="G24" t="n">
-        <v>86.61386626702637</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H24" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053148</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J24" t="n">
-        <v>146.0262857709434</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K24" t="n">
-        <v>297.480878256946</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6576814496917</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M24" t="n">
-        <v>758.2365412873037</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N24" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O24" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P24" t="n">
-        <v>1433.425461480024</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R24" t="n">
         <v>1815.956238873899</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.9496200248298</v>
+        <v>926.9407234775822</v>
       </c>
       <c r="C25" t="n">
-        <v>508.9770569037457</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="D25" t="n">
-        <v>345.6602840305164</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E25" t="n">
-        <v>179.45207818337</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F25" t="n">
-        <v>179.45207818337</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G25" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H25" t="n">
-        <v>43.83330772426896</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13587819270239</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K25" t="n">
-        <v>171.1136997362473</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L25" t="n">
-        <v>283.4360908865758</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M25" t="n">
-        <v>591.2705511630485</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.709457826327</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O25" t="n">
         <v>1589.554333948618</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230911</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q25" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
         <v>2185.982504260493</v>
       </c>
       <c r="S25" t="n">
-        <v>2031.876356297798</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T25" t="n">
-        <v>1792.466889991377</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="U25" t="n">
-        <v>1512.332610191269</v>
+        <v>1916.234459963301</v>
       </c>
       <c r="V25" t="n">
-        <v>1230.621142799298</v>
+        <v>1634.52299257133</v>
       </c>
       <c r="W25" t="n">
-        <v>955.7687389718108</v>
+        <v>1359.670588743843</v>
       </c>
       <c r="X25" t="n">
-        <v>713.2048424176159</v>
+        <v>1117.106692189648</v>
       </c>
       <c r="Y25" t="n">
-        <v>713.2048424176159</v>
+        <v>1117.106692189648</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1169.119358642259</v>
+        <v>951.347581403975</v>
       </c>
       <c r="C26" t="n">
-        <v>1169.119358642259</v>
+        <v>951.347581403975</v>
       </c>
       <c r="D26" t="n">
-        <v>745.826737827259</v>
+        <v>951.347581403975</v>
       </c>
       <c r="E26" t="n">
-        <v>745.826737827259</v>
+        <v>951.347581403975</v>
       </c>
       <c r="F26" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G26" t="n">
         <v>320.7025560166592</v>
@@ -6223,16 +6223,16 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643878</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037499</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L26" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M26" t="n">
         <v>1043.801082832444</v>
@@ -6241,7 +6241,7 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O26" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P26" t="n">
         <v>1918.85421215123</v>
@@ -6253,25 +6253,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S26" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T26" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U26" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V26" t="n">
-        <v>1834.175971339698</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="W26" t="n">
-        <v>1834.175971339698</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="X26" t="n">
-        <v>1422.455972507445</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="Y26" t="n">
-        <v>1422.455972507445</v>
+        <v>1371.195945695505</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053149</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709434</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K27" t="n">
-        <v>521.9522409288491</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L27" t="n">
-        <v>733.1290441215948</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7079039592068</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N27" t="n">
         <v>1241.233778370454</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>382.0140766924994</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="C28" t="n">
-        <v>210.0415135714154</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="D28" t="n">
-        <v>210.0415135714154</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E28" t="n">
-        <v>43.83330772426897</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F28" t="n">
-        <v>43.83330772426897</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G28" t="n">
-        <v>43.83330772426897</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426897</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I28" t="n">
         <v>43.83330772426897</v>
       </c>
       <c r="J28" t="n">
-        <v>87.13587819270241</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K28" t="n">
-        <v>171.1136997362473</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L28" t="n">
-        <v>472.3128674665612</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M28" t="n">
-        <v>591.2705511630494</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.709457826328</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O28" t="n">
         <v>1589.554333948618</v>
@@ -6408,28 +6408,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R28" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S28" t="n">
-        <v>2031.876356297799</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T28" t="n">
-        <v>1792.466889991378</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U28" t="n">
-        <v>1512.33261019127</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V28" t="n">
-        <v>1230.621142799299</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7687389718117</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="X28" t="n">
-        <v>713.2048424176168</v>
+        <v>993.7401281980589</v>
       </c>
       <c r="Y28" t="n">
-        <v>486.8620741073588</v>
+        <v>767.3973598878009</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1301.67640466719</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="C29" t="n">
-        <v>874.7756746804905</v>
+        <v>1349.632485753915</v>
       </c>
       <c r="D29" t="n">
-        <v>451.4830538654908</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="E29" t="n">
-        <v>451.4830538654908</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F29" t="n">
-        <v>43.83330772426897</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G29" t="n">
-        <v>43.83330772426897</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H29" t="n">
         <v>43.83330772426897</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J29" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M29" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N29" t="n">
         <v>1365.479726947677</v>
@@ -6490,25 +6490,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T29" t="n">
-        <v>1979.715642681245</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U29" t="n">
-        <v>1721.52476895872</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V29" t="n">
-        <v>1721.52476895872</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="W29" t="n">
-        <v>1721.52476895872</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="X29" t="n">
-        <v>1721.52476895872</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="Y29" t="n">
-        <v>1721.52476895872</v>
+        <v>1776.533215740615</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053149</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709434</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K30" t="n">
-        <v>297.480878256946</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496917</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M30" t="n">
-        <v>758.2365412873037</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N30" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O30" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P30" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>296.6961053952932</v>
+        <v>782.6661627706264</v>
       </c>
       <c r="C31" t="n">
-        <v>124.7235422742092</v>
+        <v>782.6661627706264</v>
       </c>
       <c r="D31" t="n">
-        <v>124.7235422742092</v>
+        <v>619.3493898973971</v>
       </c>
       <c r="E31" t="n">
-        <v>43.83330772426897</v>
+        <v>453.1411840502507</v>
       </c>
       <c r="F31" t="n">
-        <v>43.83330772426897</v>
+        <v>281.2794098248111</v>
       </c>
       <c r="G31" t="n">
-        <v>43.83330772426897</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="H31" t="n">
-        <v>43.83330772426897</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I31" t="n">
         <v>43.83330772426897</v>
       </c>
       <c r="J31" t="n">
-        <v>87.13587819270241</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K31" t="n">
-        <v>361.303907028271</v>
+        <v>418.3963088502693</v>
       </c>
       <c r="L31" t="n">
-        <v>850.0151917697644</v>
+        <v>870.3457903084412</v>
       </c>
       <c r="M31" t="n">
-        <v>968.9728754662527</v>
+        <v>989.3034740049295</v>
       </c>
       <c r="N31" t="n">
-        <v>1484.411782129532</v>
+        <v>1106.709457826328</v>
       </c>
       <c r="O31" t="n">
         <v>1589.554333948618</v>
@@ -6657,16 +6657,16 @@
         <v>1512.33261019127</v>
       </c>
       <c r="V31" t="n">
-        <v>1230.621142799299</v>
+        <v>1441.738796347145</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7687389718117</v>
+        <v>1441.738796347145</v>
       </c>
       <c r="X31" t="n">
-        <v>713.2048424176168</v>
+        <v>1199.17489979295</v>
       </c>
       <c r="Y31" t="n">
-        <v>486.8620741073588</v>
+        <v>972.8321314826921</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>905.2850549675372</v>
+        <v>1320.003598378111</v>
       </c>
       <c r="C32" t="n">
-        <v>478.3843249808373</v>
+        <v>893.1028683914112</v>
       </c>
       <c r="D32" t="n">
         <v>469.8102475764114</v>
@@ -6697,25 +6697,25 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I32" t="n">
-        <v>87.10761271643838</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5477172037494</v>
+        <v>228.547717203749</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804919</v>
       </c>
       <c r="L32" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050655</v>
       </c>
       <c r="M32" t="n">
         <v>1043.801082832443</v>
       </c>
       <c r="N32" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O32" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P32" t="n">
         <v>1918.85421215123</v>
@@ -6727,25 +6727,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S32" t="n">
-        <v>2191.665386213449</v>
+        <v>2145.189232714751</v>
       </c>
       <c r="T32" t="n">
-        <v>1979.715642681245</v>
+        <v>2145.189232714751</v>
       </c>
       <c r="U32" t="n">
-        <v>1721.52476895872</v>
+        <v>2145.189232714751</v>
       </c>
       <c r="V32" t="n">
-        <v>1721.52476895872</v>
+        <v>2145.189232714751</v>
       </c>
       <c r="W32" t="n">
-        <v>1325.133419259067</v>
+        <v>2145.189232714751</v>
       </c>
       <c r="X32" t="n">
-        <v>1325.133419259067</v>
+        <v>2145.189232714751</v>
       </c>
       <c r="Y32" t="n">
-        <v>1325.133419259067</v>
+        <v>1739.851962669641</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053149</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J33" t="n">
-        <v>146.0262857709434</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K33" t="n">
-        <v>297.480878256946</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6576814496917</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M33" t="n">
-        <v>758.2365412873037</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N33" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O33" t="n">
-        <v>1249.652366935844</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P33" t="n">
-        <v>1552.441323867022</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q33" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R33" t="n">
         <v>1815.956238873899</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>379.1226437185823</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C34" t="n">
-        <v>207.1500805974983</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D34" t="n">
-        <v>43.83330772426897</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E34" t="n">
-        <v>43.83330772426897</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F34" t="n">
-        <v>43.83330772426897</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G34" t="n">
-        <v>43.83330772426897</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H34" t="n">
-        <v>43.83330772426897</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I34" t="n">
         <v>43.83330772426897</v>
       </c>
       <c r="J34" t="n">
-        <v>87.13587819270241</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K34" t="n">
-        <v>171.1136997362473</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L34" t="n">
-        <v>283.4360908865758</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M34" t="n">
-        <v>815.9292550458858</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N34" t="n">
-        <v>1331.368161709165</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O34" t="n">
-        <v>1814.213037831455</v>
+        <v>1589.554333948618</v>
       </c>
       <c r="P34" t="n">
         <v>1989.180585230912</v>
@@ -6894,16 +6894,16 @@
         <v>1512.33261019127</v>
       </c>
       <c r="V34" t="n">
-        <v>1230.621142799299</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7687389718117</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="X34" t="n">
-        <v>713.2048424176168</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.8620741073588</v>
+        <v>1280.423465062877</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1317.782916623182</v>
+        <v>1714.174266322835</v>
       </c>
       <c r="C35" t="n">
-        <v>1317.782916623182</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D35" t="n">
-        <v>894.4902958081825</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E35" t="n">
-        <v>468.5133559560401</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F35" t="n">
         <v>43.83330772426897</v>
@@ -6940,7 +6940,7 @@
         <v>228.547717203749</v>
       </c>
       <c r="K35" t="n">
-        <v>448.774778480492</v>
+        <v>448.7747784804919</v>
       </c>
       <c r="L35" t="n">
         <v>727.9824581050655</v>
@@ -6976,13 +6976,13 @@
         <v>2134.022630614365</v>
       </c>
       <c r="W35" t="n">
-        <v>1737.631280914712</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="X35" t="n">
-        <v>1737.631280914712</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="Y35" t="n">
-        <v>1737.631280914712</v>
+        <v>2134.022630614365</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053149</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J36" t="n">
-        <v>146.0262857709434</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K36" t="n">
-        <v>297.480878256946</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L36" t="n">
-        <v>508.6576814496917</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M36" t="n">
-        <v>758.2365412873037</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N36" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O36" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P36" t="n">
-        <v>1433.425461480024</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q36" t="n">
         <v>1667.176901360697</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>296.6961053952932</v>
+        <v>1048.707821299438</v>
       </c>
       <c r="C37" t="n">
-        <v>282.1504054586251</v>
+        <v>876.7352581783543</v>
       </c>
       <c r="D37" t="n">
-        <v>282.1504054586251</v>
+        <v>713.418485305125</v>
       </c>
       <c r="E37" t="n">
-        <v>115.9421996114787</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F37" t="n">
-        <v>115.9421996114787</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G37" t="n">
-        <v>115.9421996114787</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H37" t="n">
         <v>115.9421996114787</v>
@@ -7095,25 +7095,25 @@
         <v>43.83330772426897</v>
       </c>
       <c r="J37" t="n">
-        <v>87.13587819270241</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K37" t="n">
         <v>171.1136997362473</v>
       </c>
       <c r="L37" t="n">
-        <v>456.8103098456195</v>
+        <v>659.8249844777408</v>
       </c>
       <c r="M37" t="n">
-        <v>989.3034740049295</v>
+        <v>778.7826681742291</v>
       </c>
       <c r="N37" t="n">
-        <v>1106.709457826328</v>
+        <v>1258.082955204228</v>
       </c>
       <c r="O37" t="n">
-        <v>1589.554333948618</v>
+        <v>1740.927831326518</v>
       </c>
       <c r="P37" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q37" t="n">
         <v>2191.665386213449</v>
@@ -7128,19 +7128,19 @@
         <v>1792.466889991378</v>
       </c>
       <c r="U37" t="n">
-        <v>1512.33261019127</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="V37" t="n">
-        <v>1230.621142799299</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="W37" t="n">
-        <v>955.7687389718117</v>
+        <v>1517.614486163891</v>
       </c>
       <c r="X37" t="n">
-        <v>713.2048424176168</v>
+        <v>1275.050589609696</v>
       </c>
       <c r="Y37" t="n">
-        <v>486.8620741073588</v>
+        <v>1048.707821299438</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1366.479751876809</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C38" t="n">
-        <v>939.5790218901091</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D38" t="n">
-        <v>722.9911724139236</v>
+        <v>894.9344293870112</v>
       </c>
       <c r="E38" t="n">
-        <v>722.9911724139236</v>
+        <v>468.9574895348687</v>
       </c>
       <c r="F38" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="G38" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="H38" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I38" t="n">
-        <v>87.1076127164381</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J38" t="n">
-        <v>228.547717203749</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K38" t="n">
-        <v>448.774778480492</v>
+        <v>448.7747784804922</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050655</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M38" t="n">
         <v>1043.801082832443</v>
@@ -7192,34 +7192,34 @@
         <v>1667.064768900564</v>
       </c>
       <c r="P38" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151229</v>
       </c>
       <c r="Q38" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681864</v>
       </c>
       <c r="R38" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="S38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T38" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U38" t="n">
-        <v>2191.665386213449</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="V38" t="n">
-        <v>2191.665386213449</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="W38" t="n">
-        <v>2191.665386213449</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="X38" t="n">
-        <v>2191.665386213449</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="Y38" t="n">
-        <v>1786.328116168339</v>
+        <v>1745.127780188711</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>179.5705527131623</v>
       </c>
       <c r="G39" t="n">
-        <v>86.61386626702638</v>
+        <v>86.61386626702637</v>
       </c>
       <c r="H39" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I39" t="n">
         <v>64.84342863053149</v>
       </c>
       <c r="J39" t="n">
-        <v>146.0262857709434</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K39" t="n">
-        <v>297.480878256946</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L39" t="n">
-        <v>508.6576814496917</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M39" t="n">
-        <v>758.2365412873037</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N39" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O39" t="n">
-        <v>1249.652366935844</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P39" t="n">
         <v>1657.896824151927</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>578.4075727872644</v>
+        <v>456.485135310942</v>
       </c>
       <c r="C40" t="n">
-        <v>578.4075727872644</v>
+        <v>456.485135310942</v>
       </c>
       <c r="D40" t="n">
-        <v>578.4075727872644</v>
+        <v>293.1683624377127</v>
       </c>
       <c r="E40" t="n">
-        <v>412.1993669401179</v>
+        <v>293.1683624377127</v>
       </c>
       <c r="F40" t="n">
-        <v>240.3375927146783</v>
+        <v>293.1683624377127</v>
       </c>
       <c r="G40" t="n">
-        <v>75.00038250134591</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H40" t="n">
-        <v>43.83330772426897</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I40" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="J40" t="n">
-        <v>87.13587819270241</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>259.2112004267184</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L40" t="n">
-        <v>371.5335915770469</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M40" t="n">
-        <v>904.0267557363569</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N40" t="n">
-        <v>1419.465662399636</v>
+        <v>1634.928458220693</v>
       </c>
       <c r="O40" t="n">
-        <v>1902.310538521926</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P40" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.55408260881</v>
       </c>
       <c r="Q40" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="R40" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="S40" t="n">
-        <v>2031.876356297799</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="T40" t="n">
-        <v>1792.466889991378</v>
+        <v>1952.255919907027</v>
       </c>
       <c r="U40" t="n">
-        <v>1512.33261019127</v>
+        <v>1672.121640106919</v>
       </c>
       <c r="V40" t="n">
-        <v>1512.33261019127</v>
+        <v>1390.410172714948</v>
       </c>
       <c r="W40" t="n">
-        <v>1237.480206363783</v>
+        <v>1115.55776888746</v>
       </c>
       <c r="X40" t="n">
-        <v>994.9163098095879</v>
+        <v>872.9938723332656</v>
       </c>
       <c r="Y40" t="n">
-        <v>768.57354149933</v>
+        <v>646.6511040230076</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>756.4721236765054</v>
+        <v>1148.968112266066</v>
       </c>
       <c r="C41" t="n">
-        <v>468.9574895348687</v>
+        <v>1148.968112266066</v>
       </c>
       <c r="D41" t="n">
-        <v>468.9574895348687</v>
+        <v>1148.968112266066</v>
       </c>
       <c r="E41" t="n">
-        <v>468.9574895348687</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F41" t="n">
-        <v>43.83330772426896</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G41" t="n">
-        <v>43.83330772426896</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H41" t="n">
         <v>43.83330772426896</v>
       </c>
       <c r="I41" t="n">
-        <v>87.10761271643837</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J41" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K41" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L41" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M41" t="n">
         <v>1043.801082832444</v>
@@ -7426,37 +7426,37 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O41" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P41" t="n">
         <v>1918.85421215123</v>
       </c>
       <c r="Q41" t="n">
-        <v>2100.109526681864</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R41" t="n">
         <v>2191.665386213448</v>
       </c>
       <c r="S41" t="n">
-        <v>2134.022630614365</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="T41" t="n">
-        <v>1922.072887082162</v>
+        <v>1979.715642681245</v>
       </c>
       <c r="U41" t="n">
-        <v>1922.072887082162</v>
+        <v>1721.52476895872</v>
       </c>
       <c r="V41" t="n">
-        <v>1564.583472208411</v>
+        <v>1364.035354084969</v>
       </c>
       <c r="W41" t="n">
-        <v>1168.192122508758</v>
+        <v>1364.035354084969</v>
       </c>
       <c r="X41" t="n">
-        <v>756.4721236765054</v>
+        <v>1148.968112266066</v>
       </c>
       <c r="Y41" t="n">
-        <v>756.4721236765054</v>
+        <v>1148.968112266066</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>43.83330772426896</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053149</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0262857709434</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K42" t="n">
-        <v>297.480878256946</v>
+        <v>521.9522409288486</v>
       </c>
       <c r="L42" t="n">
-        <v>508.6576814496917</v>
+        <v>733.1290441215943</v>
       </c>
       <c r="M42" t="n">
-        <v>758.2365412873037</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N42" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O42" t="n">
-        <v>1249.652366935844</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P42" t="n">
-        <v>1433.425461480024</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q42" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.430520044564</v>
+        <v>695.8946016173632</v>
       </c>
       <c r="C43" t="n">
-        <v>616.45795692348</v>
+        <v>523.9220384962791</v>
       </c>
       <c r="D43" t="n">
-        <v>453.1411840502507</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="E43" t="n">
-        <v>453.1411840502507</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="F43" t="n">
-        <v>281.2794098248111</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G43" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="H43" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I43" t="n">
         <v>43.83330772426896</v>
       </c>
       <c r="J43" t="n">
-        <v>87.13587819270239</v>
+        <v>87.13587819270242</v>
       </c>
       <c r="K43" t="n">
-        <v>418.3963088502693</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L43" t="n">
-        <v>530.7187000005978</v>
+        <v>522.9070889549455</v>
       </c>
       <c r="M43" t="n">
-        <v>1063.211864159908</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N43" t="n">
-        <v>1578.650770823187</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O43" t="n">
-        <v>1902.310538521926</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P43" t="n">
-        <v>1989.180585230911</v>
+        <v>2140.55408260881</v>
       </c>
       <c r="Q43" t="n">
         <v>2191.665386213448</v>
       </c>
       <c r="R43" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="S43" t="n">
-        <v>2031.876356297799</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.466889991378</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.332610191269</v>
+        <v>1911.53110641334</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.012789138312</v>
+        <v>1629.819639021369</v>
       </c>
       <c r="W43" t="n">
-        <v>1221.160385310824</v>
+        <v>1354.967235193882</v>
       </c>
       <c r="X43" t="n">
-        <v>978.5964887566297</v>
+        <v>1112.403338639687</v>
       </c>
       <c r="Y43" t="n">
-        <v>978.5964887566297</v>
+        <v>886.0605703294289</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>871.2461059321332</v>
+        <v>2000.993024063366</v>
       </c>
       <c r="C44" t="n">
-        <v>871.2461059321332</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="D44" t="n">
-        <v>871.2461059321332</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="E44" t="n">
-        <v>871.2461059321332</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F44" t="n">
-        <v>446.1219241215334</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G44" t="n">
-        <v>43.83330772426896</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H44" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I44" t="n">
         <v>87.10761271643844</v>
@@ -7651,49 +7651,49 @@
         <v>228.5477172037495</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050657</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N44" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O44" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P44" t="n">
-        <v>1918.854212151229</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q44" t="n">
-        <v>2100.109526681864</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R44" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2134.022630614365</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T44" t="n">
-        <v>2092.823089968426</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U44" t="n">
-        <v>2092.823089968426</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V44" t="n">
-        <v>2092.823089968426</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W44" t="n">
-        <v>1696.431740268773</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X44" t="n">
-        <v>1696.431740268773</v>
+        <v>2000.993024063366</v>
       </c>
       <c r="Y44" t="n">
-        <v>1291.094470223663</v>
+        <v>2000.993024063366</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>974.9733260640795</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C45" t="n">
-        <v>857.4674225815843</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D45" t="n">
-        <v>753.6274640968693</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E45" t="n">
-        <v>648.9255303698066</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F45" t="n">
-        <v>555.2797000527107</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G45" t="n">
-        <v>462.3230136065748</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>419.5424550638174</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I45" t="n">
-        <v>440.5525759700799</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J45" t="n">
-        <v>521.7354331104918</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K45" t="n">
-        <v>673.1900255964944</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L45" t="n">
-        <v>884.3668287892401</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.945688626852</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.471563038099</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O45" t="n">
-        <v>1625.361514275392</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P45" t="n">
-        <v>1809.134608819573</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q45" t="n">
-        <v>2148.341548985151</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R45" t="n">
-        <v>2191.665386213448</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S45" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T45" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U45" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V45" t="n">
-        <v>1603.59194753097</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W45" t="n">
-        <v>1407.070570364187</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.59322413085</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y45" t="n">
-        <v>1103.900335484142</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.877742943809</v>
+        <v>846.2868302381622</v>
       </c>
       <c r="C46" t="n">
-        <v>414.877742943809</v>
+        <v>674.3142671170782</v>
       </c>
       <c r="D46" t="n">
-        <v>251.5609700705797</v>
+        <v>510.9974942438489</v>
       </c>
       <c r="E46" t="n">
-        <v>251.5609700705797</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="F46" t="n">
-        <v>251.5609700705797</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G46" t="n">
-        <v>251.5609700705797</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H46" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I46" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J46" t="n">
-        <v>87.13587819270239</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K46" t="n">
-        <v>171.1136997362473</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L46" t="n">
-        <v>522.9070889549455</v>
+        <v>283.4360908865759</v>
       </c>
       <c r="M46" t="n">
-        <v>1055.400253114256</v>
+        <v>815.929255045886</v>
       </c>
       <c r="N46" t="n">
-        <v>1570.839159777535</v>
+        <v>1331.368161709165</v>
       </c>
       <c r="O46" t="n">
-        <v>2053.684035899825</v>
+        <v>1814.213037831455</v>
       </c>
       <c r="P46" t="n">
-        <v>2140.55408260881</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q46" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S46" t="n">
-        <v>2031.876356297799</v>
+        <v>2109.589645036632</v>
       </c>
       <c r="T46" t="n">
-        <v>1910.648527539894</v>
+        <v>1870.18017873021</v>
       </c>
       <c r="U46" t="n">
-        <v>1630.514247739786</v>
+        <v>1590.045898930102</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.802780347814</v>
+        <v>1590.045898930102</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.950376520327</v>
+        <v>1315.193495102615</v>
       </c>
       <c r="X46" t="n">
-        <v>831.3864799661326</v>
+        <v>1072.62959854842</v>
       </c>
       <c r="Y46" t="n">
-        <v>605.0437116558746</v>
+        <v>846.2868302381622</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8859,7 +8859,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>395.489638897239</v>
+        <v>316.7808342020665</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>226.738750173639</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>142.0156557893245</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>163.8783115981273</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.52379448746002</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>96.41666900083059</v>
+        <v>316.7808342020665</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>226.7387501736396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>133.9384739216966</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>316.780834202066</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.7387501736395</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>190.7846228080651</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>265.6755599713746</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K27" t="n">
-        <v>226.7387501736395</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>190.7846228080661</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>265.6755599713746</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>226.7387501736396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,19 +10272,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>192.1113204969936</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>343.0576669776195</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>120.2180428151488</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>265.6755599713746</v>
       </c>
       <c r="P34" t="n">
-        <v>88.98737443481944</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.2180428151488</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10749,13 +10749,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>175.1254736960037</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>365.5498012208077</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>226.7387501736396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>88.98737443481927</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>316.7808342020659</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>226.7387501736389</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.2180428151488</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>241.8898970387572</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>220.7244604844971</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>226.7387501736398</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>241.8898970387573</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>241.889897038758</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>320.6507987105274</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.2657302332918</v>
@@ -23314,13 +23314,13 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3627748406343</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>97.9017449653297</v>
       </c>
       <c r="X13" t="n">
-        <v>22.52092740395966</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31191734733972</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>19.1870829642977</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>12.1096196274888</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>122.7028912934497</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>40.05030213938949</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>230.5416690740881</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>116.9998211730307</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>84.35511057754665</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>209.4282864133435</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>102.5618291576357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.06182427874441</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.104004646459373</v>
       </c>
       <c r="G22" t="n">
         <v>163.6838381111991</v>
@@ -24147,7 +24147,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833762</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2657302332918</v>
+        <v>56.98186894045352</v>
       </c>
       <c r="H23" t="n">
         <v>274.1005558094662</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.0663280430922</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>182.9653146173965</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3316388560868</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.38780296833762</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>162.8474596309539</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.84663292208</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>194.8000950923428</v>
       </c>
       <c r="G26" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.0663280430922</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.8302460968812</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.46479158423422</v>
+        <v>175.9594014889553</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833762</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>219.5577343927519</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>17.29969131268422</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.0663280430922</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.46479158423418</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I31" t="n">
-        <v>71.38780296833762</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>209.0064770123677</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>410.5713579764681</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.0663280430922</v>
+        <v>11.05493607938133</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.60227294005621</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.38780296833762</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>266.5931667392587</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>30.64397872721679</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4396922430403833</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.2657302332918</v>
@@ -25216,7 +25216,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>155.8525945525718</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.13417830085938</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>204.637723625426</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.0663280430922</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6089649852995</v>
+        <v>80.43330916078315</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>122.4925196677374</v>
       </c>
       <c r="H40" t="n">
-        <v>103.4071787252039</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38780296833762</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>137.9922348866126</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>194.6862294432157</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.22275627459121</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25806,7 +25806,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>262.7377298756231</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>169.0427008574014</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
         <v>255.6089649852995</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>275.9034883584401</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.31010271801806</v>
       </c>
       <c r="T46" t="n">
-        <v>116.999821173031</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>334229.5262935869</v>
+        <v>334229.5262935868</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487693.629700738</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="C2" t="n">
         <v>487693.6297007379</v>
@@ -26322,40 +26322,40 @@
         <v>487693.6297007379</v>
       </c>
       <c r="E2" t="n">
+        <v>294765.4397517484</v>
+      </c>
+      <c r="F2" t="n">
+        <v>294765.4397517483</v>
+      </c>
+      <c r="G2" t="n">
         <v>294765.4397517482</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>294765.4397517483</v>
+      </c>
+      <c r="I2" t="n">
+        <v>294765.4397517483</v>
+      </c>
+      <c r="J2" t="n">
+        <v>294765.4397517483</v>
+      </c>
+      <c r="K2" t="n">
+        <v>294765.4397517483</v>
+      </c>
+      <c r="L2" t="n">
+        <v>294765.4397517484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>294765.4397517483</v>
+      </c>
+      <c r="N2" t="n">
         <v>294765.4397517482</v>
-      </c>
-      <c r="G2" t="n">
-        <v>294765.4397517481</v>
-      </c>
-      <c r="H2" t="n">
-        <v>294765.4397517482</v>
-      </c>
-      <c r="I2" t="n">
-        <v>294765.4397517482</v>
-      </c>
-      <c r="J2" t="n">
-        <v>294765.4397517481</v>
-      </c>
-      <c r="K2" t="n">
-        <v>294765.4397517482</v>
-      </c>
-      <c r="L2" t="n">
-        <v>294765.4397517483</v>
-      </c>
-      <c r="M2" t="n">
-        <v>294765.4397517481</v>
-      </c>
-      <c r="N2" t="n">
-        <v>294765.4397517481</v>
       </c>
       <c r="O2" t="n">
         <v>294765.4397517482</v>
       </c>
       <c r="P2" t="n">
-        <v>294765.4397517482</v>
+        <v>294765.4397517483</v>
       </c>
     </row>
     <row r="3">
@@ -26432,34 +26432,34 @@
         <v>22575.93305068482</v>
       </c>
       <c r="G4" t="n">
+        <v>22575.93305068483</v>
+      </c>
+      <c r="H4" t="n">
         <v>22575.93305068482</v>
       </c>
-      <c r="H4" t="n">
-        <v>22575.93305068483</v>
-      </c>
       <c r="I4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="J4" t="n">
         <v>22575.93305068483</v>
       </c>
       <c r="K4" t="n">
+        <v>22575.93305068482</v>
+      </c>
+      <c r="L4" t="n">
         <v>22575.93305068483</v>
       </c>
-      <c r="L4" t="n">
-        <v>22575.93305068487</v>
-      </c>
       <c r="M4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="N4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="O4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="P4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>44321.17942781075</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781074</v>
       </c>
       <c r="G5" t="n">
         <v>44321.17942781074</v>
@@ -26490,19 +26490,19 @@
         <v>44321.17942781074</v>
       </c>
       <c r="I5" t="n">
-        <v>44321.17942781073</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="K5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="L5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="M5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="N5" t="n">
         <v>44321.17942781074</v>
@@ -26511,7 +26511,7 @@
         <v>44321.17942781074</v>
       </c>
       <c r="P5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781076</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129363.3999540322</v>
+        <v>129341.6863125357</v>
       </c>
       <c r="C6" t="n">
-        <v>129363.399954032</v>
+        <v>129341.6863125357</v>
       </c>
       <c r="D6" t="n">
-        <v>129363.399954032</v>
+        <v>129341.6863125357</v>
       </c>
       <c r="E6" t="n">
-        <v>-341404.146638085</v>
+        <v>-341993.2961323722</v>
       </c>
       <c r="F6" t="n">
-        <v>227868.3272732527</v>
+        <v>227279.1777789653</v>
       </c>
       <c r="G6" t="n">
-        <v>227868.3272732526</v>
+        <v>227279.1777789652</v>
       </c>
       <c r="H6" t="n">
-        <v>227868.3272732526</v>
+        <v>227279.1777789653</v>
       </c>
       <c r="I6" t="n">
-        <v>227868.3272732527</v>
+        <v>227279.1777789653</v>
       </c>
       <c r="J6" t="n">
-        <v>227868.3272732525</v>
+        <v>227279.1777789653</v>
       </c>
       <c r="K6" t="n">
-        <v>227868.3272732526</v>
+        <v>227279.1777789653</v>
       </c>
       <c r="L6" t="n">
-        <v>227868.3272732527</v>
+        <v>227279.1777789654</v>
       </c>
       <c r="M6" t="n">
-        <v>91325.38204676841</v>
+        <v>90736.23255248123</v>
       </c>
       <c r="N6" t="n">
-        <v>227868.3272732525</v>
+        <v>227279.1777789652</v>
       </c>
       <c r="O6" t="n">
-        <v>227868.3272732527</v>
+        <v>227279.1777789652</v>
       </c>
       <c r="P6" t="n">
-        <v>227868.3272732527</v>
+        <v>227279.1777789652</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>504.9479613470795</v>
       </c>
       <c r="G3" t="n">
+        <v>504.9479613470794</v>
+      </c>
+      <c r="H3" t="n">
         <v>504.9479613470795</v>
       </c>
-      <c r="H3" t="n">
-        <v>504.9479613470794</v>
-      </c>
       <c r="I3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="J3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="K3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="L3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="M3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="N3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="O3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="P3" t="n">
-        <v>504.9479613470794</v>
+        <v>504.9479613470796</v>
       </c>
     </row>
     <row r="4">
@@ -26801,16 +26801,16 @@
         <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
+        <v>547.916346553362</v>
+      </c>
+      <c r="G4" t="n">
         <v>547.9163465533621</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>547.916346553362</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>547.9163465533621</v>
-      </c>
-      <c r="I4" t="n">
-        <v>547.9163465533619</v>
       </c>
       <c r="J4" t="n">
         <v>547.9163465533621</v>
@@ -26825,13 +26825,13 @@
         <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.916346553362</v>
       </c>
       <c r="O4" t="n">
         <v>547.916346553362</v>
       </c>
       <c r="P4" t="n">
-        <v>547.916346553362</v>
+        <v>547.9163465533622</v>
       </c>
     </row>
   </sheetData>
@@ -32229,10 +32229,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H17" t="n">
-        <v>20.7891389312393</v>
+        <v>20.78913893123929</v>
       </c>
       <c r="I17" t="n">
-        <v>78.25932172797302</v>
+        <v>78.259321727973</v>
       </c>
       <c r="J17" t="n">
         <v>172.2887518970118</v>
@@ -32247,16 +32247,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N17" t="n">
-        <v>362.2075461831669</v>
+        <v>362.2075461831668</v>
       </c>
       <c r="O17" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P17" t="n">
-        <v>291.9081327704994</v>
+        <v>291.9081327704993</v>
       </c>
       <c r="Q17" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981685</v>
       </c>
       <c r="R17" t="n">
         <v>127.5133160883155</v>
@@ -32265,7 +32265,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T17" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932018</v>
       </c>
       <c r="U17" t="n">
         <v>0.1623953242523269</v>
@@ -32311,7 +32311,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I18" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976013</v>
       </c>
       <c r="J18" t="n">
         <v>102.6140003337494</v>
@@ -32320,34 +32320,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L18" t="n">
-        <v>235.8249889291243</v>
+        <v>235.8249889291242</v>
       </c>
       <c r="M18" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341582</v>
       </c>
       <c r="N18" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093869</v>
       </c>
       <c r="P18" t="n">
-        <v>207.4002296332939</v>
+        <v>207.4002296332938</v>
       </c>
       <c r="Q18" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R18" t="n">
-        <v>67.43437113989869</v>
+        <v>67.43437113989867</v>
       </c>
       <c r="S18" t="n">
-        <v>20.17410015381963</v>
+        <v>20.17410015381962</v>
       </c>
       <c r="T18" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678923</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.07145490019062448</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.9105618975111267</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417114</v>
       </c>
       <c r="I19" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878916</v>
       </c>
       <c r="J19" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403665</v>
       </c>
       <c r="K19" t="n">
         <v>105.7907368199291</v>
@@ -32405,7 +32405,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N19" t="n">
-        <v>139.3408038254983</v>
+        <v>139.3408038254982</v>
       </c>
       <c r="O19" t="n">
         <v>128.7037852954819</v>
@@ -32414,19 +32414,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340898</v>
       </c>
       <c r="R19" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627301</v>
       </c>
       <c r="S19" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T19" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002086</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151606</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H20" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I20" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J20" t="n">
         <v>172.2887518970118</v>
@@ -32484,16 +32484,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N20" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O20" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P20" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q20" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R20" t="n">
         <v>127.5133160883155</v>
@@ -32502,7 +32502,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T20" t="n">
-        <v>8.886069148932018</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U20" t="n">
         <v>0.1623953242523269</v>
@@ -32548,7 +32548,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I21" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J21" t="n">
         <v>102.6140003337494</v>
@@ -32557,34 +32557,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L21" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M21" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N21" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O21" t="n">
-        <v>258.4142647093869</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P21" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q21" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R21" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S21" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T21" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H22" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I22" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J22" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K22" t="n">
         <v>105.7907368199291</v>
@@ -32642,7 +32642,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N22" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O22" t="n">
         <v>128.7037852954819</v>
@@ -32651,19 +32651,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R22" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S22" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T22" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H23" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I23" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J23" t="n">
         <v>172.2887518970118</v>
@@ -32721,16 +32721,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N23" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O23" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P23" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q23" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R23" t="n">
         <v>127.5133160883155</v>
@@ -32739,7 +32739,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T23" t="n">
-        <v>8.886069148932018</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U23" t="n">
         <v>0.1623953242523269</v>
@@ -32785,7 +32785,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I24" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J24" t="n">
         <v>102.6140003337494</v>
@@ -32794,34 +32794,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L24" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M24" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N24" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O24" t="n">
-        <v>258.4142647093869</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P24" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q24" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R24" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S24" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T24" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H25" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I25" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J25" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K25" t="n">
         <v>105.7907368199291</v>
@@ -32879,7 +32879,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N25" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O25" t="n">
         <v>128.7037852954819</v>
@@ -32888,19 +32888,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R25" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S25" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T25" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H26" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I26" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J26" t="n">
         <v>172.2887518970118</v>
@@ -32958,16 +32958,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N26" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O26" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P26" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q26" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R26" t="n">
         <v>127.5133160883155</v>
@@ -32976,7 +32976,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T26" t="n">
-        <v>8.886069148932018</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U26" t="n">
         <v>0.1623953242523269</v>
@@ -33022,7 +33022,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I27" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J27" t="n">
         <v>102.6140003337494</v>
@@ -33031,34 +33031,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L27" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M27" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N27" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O27" t="n">
-        <v>258.4142647093869</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P27" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q27" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R27" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S27" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T27" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H28" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I28" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J28" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K28" t="n">
         <v>105.7907368199291</v>
@@ -33116,7 +33116,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N28" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O28" t="n">
         <v>128.7037852954819</v>
@@ -33125,19 +33125,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R28" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S28" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T28" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H29" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I29" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J29" t="n">
         <v>172.2887518970118</v>
@@ -33195,16 +33195,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N29" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O29" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P29" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q29" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R29" t="n">
         <v>127.5133160883155</v>
@@ -33213,7 +33213,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T29" t="n">
-        <v>8.886069148932018</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U29" t="n">
         <v>0.1623953242523269</v>
@@ -33259,7 +33259,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I30" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J30" t="n">
         <v>102.6140003337494</v>
@@ -33268,34 +33268,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L30" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M30" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N30" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O30" t="n">
-        <v>258.4142647093869</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P30" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q30" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R30" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S30" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T30" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H31" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I31" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J31" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K31" t="n">
         <v>105.7907368199291</v>
@@ -33353,7 +33353,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N31" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O31" t="n">
         <v>128.7037852954819</v>
@@ -33362,19 +33362,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R31" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S31" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T31" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H32" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I32" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J32" t="n">
         <v>172.2887518970118</v>
@@ -33432,16 +33432,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N32" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O32" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P32" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q32" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R32" t="n">
         <v>127.5133160883155</v>
@@ -33450,7 +33450,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T32" t="n">
-        <v>8.886069148932018</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U32" t="n">
         <v>0.1623953242523269</v>
@@ -33496,7 +33496,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I33" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J33" t="n">
         <v>102.6140003337494</v>
@@ -33505,34 +33505,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L33" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M33" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N33" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O33" t="n">
-        <v>258.4142647093869</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P33" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q33" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R33" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S33" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T33" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H34" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I34" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J34" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K34" t="n">
         <v>105.7907368199291</v>
@@ -33590,7 +33590,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N34" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O34" t="n">
         <v>128.7037852954819</v>
@@ -33599,19 +33599,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R34" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S34" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T34" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H35" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I35" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J35" t="n">
         <v>172.2887518970118</v>
@@ -33669,16 +33669,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N35" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O35" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P35" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q35" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R35" t="n">
         <v>127.5133160883155</v>
@@ -33687,7 +33687,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T35" t="n">
-        <v>8.886069148932018</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U35" t="n">
         <v>0.1623953242523269</v>
@@ -33733,7 +33733,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I36" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J36" t="n">
         <v>102.6140003337494</v>
@@ -33742,34 +33742,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L36" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M36" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N36" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O36" t="n">
-        <v>258.4142647093869</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P36" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q36" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R36" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S36" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T36" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H37" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I37" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J37" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K37" t="n">
         <v>105.7907368199291</v>
@@ -33827,7 +33827,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N37" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O37" t="n">
         <v>128.7037852954819</v>
@@ -33836,19 +33836,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R37" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S37" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T37" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H38" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I38" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J38" t="n">
         <v>172.2887518970118</v>
@@ -33906,16 +33906,16 @@
         <v>356.4399747452678</v>
       </c>
       <c r="N38" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O38" t="n">
         <v>342.0223148639909</v>
       </c>
       <c r="P38" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q38" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R38" t="n">
         <v>127.5133160883155</v>
@@ -33924,7 +33924,7 @@
         <v>46.2572931424988</v>
       </c>
       <c r="T38" t="n">
-        <v>8.886069148932018</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U38" t="n">
         <v>0.1623953242523269</v>
@@ -33970,7 +33970,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I39" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J39" t="n">
         <v>102.6140003337494</v>
@@ -33979,34 +33979,34 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L39" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M39" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N39" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O39" t="n">
-        <v>258.4142647093869</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P39" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q39" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R39" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S39" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T39" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H40" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I40" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J40" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K40" t="n">
         <v>105.7907368199291</v>
@@ -34064,7 +34064,7 @@
         <v>142.7347163525851</v>
       </c>
       <c r="N40" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O40" t="n">
         <v>128.7037852954819</v>
@@ -34073,19 +34073,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R40" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S40" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T40" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,43 +34125,43 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H41" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I41" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J41" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K41" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L41" t="n">
-        <v>320.3400016493641</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M41" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N41" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O41" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P41" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q41" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R41" t="n">
-        <v>127.5133160883155</v>
+        <v>127.513316088315</v>
       </c>
       <c r="S41" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T41" t="n">
-        <v>8.886069148932018</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U41" t="n">
         <v>0.1623953242523269</v>
@@ -34207,43 +34207,43 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I42" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J42" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K42" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L42" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M42" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N42" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O42" t="n">
-        <v>258.4142647093869</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P42" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q42" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R42" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S42" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T42" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H43" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I43" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J43" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K43" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L43" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M43" t="n">
         <v>142.7347163525851</v>
       </c>
       <c r="N43" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O43" t="n">
         <v>128.7037852954819</v>
@@ -34310,19 +34310,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R43" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S43" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T43" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H44" t="n">
-        <v>20.78913893123929</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I44" t="n">
-        <v>78.259321727973</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J44" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K44" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L44" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M44" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N44" t="n">
-        <v>362.2075461831668</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O44" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P44" t="n">
-        <v>291.9081327704993</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.2108508981685</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R44" t="n">
         <v>127.5133160883155</v>
       </c>
       <c r="S44" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T44" t="n">
-        <v>8.886069148932018</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U44" t="n">
         <v>0.1623953242523269</v>
@@ -34444,43 +34444,43 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I45" t="n">
-        <v>37.39473109976013</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J45" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K45" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L45" t="n">
-        <v>235.8249889291242</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M45" t="n">
-        <v>275.1966389341582</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N45" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O45" t="n">
-        <v>258.4142647093869</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P45" t="n">
-        <v>207.4002296332938</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q45" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R45" t="n">
-        <v>67.43437113989867</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S45" t="n">
-        <v>20.17410015381962</v>
+        <v>20.17410015381963</v>
       </c>
       <c r="T45" t="n">
-        <v>4.377803551678923</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07145490019062448</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9105618975111267</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H46" t="n">
-        <v>8.095723052417114</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I46" t="n">
-        <v>27.38307960878916</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J46" t="n">
-        <v>64.37672615403665</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K46" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L46" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M46" t="n">
         <v>142.7347163525851</v>
       </c>
       <c r="N46" t="n">
-        <v>139.3408038254982</v>
+        <v>139.3408038254983</v>
       </c>
       <c r="O46" t="n">
         <v>128.7037852954819</v>
@@ -34547,19 +34547,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.24714216340898</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R46" t="n">
-        <v>40.94217404627301</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S46" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T46" t="n">
-        <v>3.890582653002086</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04966701259151606</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J12" t="n">
         <v>82.00288600041611</v>
@@ -35497,7 +35497,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
-        <v>478.8386085954693</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N12" t="n">
         <v>261.1372468800477</v>
@@ -35509,10 +35509,10 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083434</v>
       </c>
       <c r="R12" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
         <v>334.606495613704</v>
@@ -35579,7 +35579,7 @@
         <v>537.871882989202</v>
       </c>
       <c r="N13" t="n">
-        <v>514.0815417471368</v>
+        <v>435.3727370519644</v>
       </c>
       <c r="O13" t="n">
         <v>106.2045977970574</v>
@@ -35731,13 +35731,13 @@
         <v>152.9844368545481</v>
       </c>
       <c r="L15" t="n">
-        <v>440.0486523885338</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M15" t="n">
         <v>252.0998584218303</v>
       </c>
       <c r="N15" t="n">
-        <v>261.1372468800477</v>
+        <v>487.8759970536867</v>
       </c>
       <c r="O15" t="n">
         <v>235.2423749871648</v>
@@ -35810,19 +35810,19 @@
         <v>334.606495613704</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M16" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O16" t="n">
-        <v>248.220253586382</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P16" t="n">
-        <v>87.74752192826831</v>
+        <v>251.6258335263956</v>
       </c>
       <c r="Q16" t="n">
         <v>204.5301020025625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.71141918400951</v>
+        <v>43.7114191840095</v>
       </c>
       <c r="J17" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K17" t="n">
-        <v>222.4515770472151</v>
+        <v>222.451577047215</v>
       </c>
       <c r="L17" t="n">
-        <v>282.0279592167409</v>
+        <v>282.0279592167408</v>
       </c>
       <c r="M17" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458359</v>
       </c>
       <c r="N17" t="n">
-        <v>324.9279233487209</v>
+        <v>324.9279233487208</v>
       </c>
       <c r="O17" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P17" t="n">
-        <v>254.3327709602681</v>
+        <v>254.332770960268</v>
       </c>
       <c r="Q17" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351903</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878761</v>
       </c>
       <c r="K18" t="n">
-        <v>152.9844368545481</v>
+        <v>152.984436854548</v>
       </c>
       <c r="L18" t="n">
-        <v>440.0486523885338</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218302</v>
       </c>
       <c r="N18" t="n">
-        <v>261.1372468800477</v>
+        <v>261.1372468800476</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2423749871648</v>
+        <v>235.2423749871647</v>
       </c>
       <c r="P18" t="n">
         <v>185.6293884284652</v>
@@ -35986,7 +35986,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K19" t="n">
-        <v>84.82608236721708</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L19" t="n">
-        <v>113.4569607579076</v>
+        <v>493.6477623651449</v>
       </c>
       <c r="M19" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N19" t="n">
-        <v>215.0085718507285</v>
+        <v>435.3727370519644</v>
       </c>
       <c r="O19" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826828</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862404</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J20" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K20" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L20" t="n">
-        <v>282.0279592167408</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M20" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N20" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O20" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P20" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q20" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R20" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.22234434976013</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J21" t="n">
-        <v>82.0028860004161</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K21" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L21" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M21" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N21" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O21" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P21" t="n">
-        <v>412.3681386021048</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q21" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R21" t="n">
-        <v>43.76145174575453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K22" t="n">
-        <v>84.82608236721707</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L22" t="n">
-        <v>493.6477623651449</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M22" t="n">
-        <v>254.0977503827959</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N22" t="n">
-        <v>118.5919028498978</v>
+        <v>435.3727370519639</v>
       </c>
       <c r="O22" t="n">
-        <v>487.7220970932223</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P22" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5301020025624</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J23" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K23" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L23" t="n">
-        <v>282.0279592167408</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M23" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N23" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O23" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P23" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q23" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976013</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J24" t="n">
-        <v>82.0028860004161</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K24" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L24" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M24" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N24" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O24" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P24" t="n">
         <v>185.6293884284652</v>
       </c>
       <c r="Q24" t="n">
-        <v>342.6332728945233</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>43.76145174575453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.73997017013478</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K25" t="n">
-        <v>84.82608236721707</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L25" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M25" t="n">
-        <v>310.9438992691644</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N25" t="n">
-        <v>520.6453602659384</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O25" t="n">
-        <v>487.7220970932223</v>
+        <v>371.880157768432</v>
       </c>
       <c r="P25" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5301020025624</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J26" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K26" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L26" t="n">
-        <v>282.0279592167408</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M26" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N26" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O26" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P26" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q26" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R26" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351899</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976013</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J27" t="n">
-        <v>82.0028860004161</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K27" t="n">
-        <v>379.7231870281875</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L27" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M27" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N27" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O27" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
         <v>185.6293884284652</v>
@@ -36697,7 +36697,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575453</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.73997017013478</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K28" t="n">
-        <v>84.82608236721707</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L28" t="n">
-        <v>304.2415835659737</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M28" t="n">
-        <v>120.1592764610992</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N28" t="n">
-        <v>520.6453602659384</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O28" t="n">
-        <v>487.7220970932223</v>
+        <v>371.880157768432</v>
       </c>
       <c r="P28" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.5301020025624</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J29" t="n">
-        <v>142.8687924114253</v>
+        <v>142.8687924114254</v>
       </c>
       <c r="K29" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L29" t="n">
-        <v>282.0279592167408</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M29" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N29" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O29" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P29" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q29" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R29" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976013</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J30" t="n">
-        <v>82.0028860004161</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K30" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L30" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M30" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N30" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O30" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P30" t="n">
-        <v>412.3681386021048</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q30" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
-        <v>43.76145174575453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.73997017013478</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K31" t="n">
-        <v>276.9374028642107</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L31" t="n">
-        <v>493.6477623651449</v>
+        <v>456.5146277355271</v>
       </c>
       <c r="M31" t="n">
-        <v>120.1592764610992</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N31" t="n">
-        <v>520.6453602659384</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O31" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P31" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025624</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J32" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K32" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L32" t="n">
-        <v>282.0279592167408</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M32" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N32" t="n">
-        <v>324.9279233487217</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O32" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P32" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q32" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976013</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J33" t="n">
-        <v>82.0028860004161</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K33" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L33" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M33" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N33" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O33" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P33" t="n">
-        <v>305.847431243614</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q33" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R33" t="n">
-        <v>150.2821591042452</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.73997017013478</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K34" t="n">
-        <v>84.82608236721707</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M34" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N34" t="n">
-        <v>520.6453602659384</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O34" t="n">
-        <v>487.7220970932223</v>
+        <v>371.880157768432</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7348963630877</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5301020025624</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J35" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K35" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L35" t="n">
-        <v>282.0279592167408</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M35" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N35" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O35" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P35" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q35" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R35" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976013</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J36" t="n">
-        <v>82.0028860004161</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K36" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L36" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M36" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N36" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O36" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P36" t="n">
         <v>185.6293884284652</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.1125655360326</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R36" t="n">
         <v>150.2821591042452</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.73997017013478</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K37" t="n">
-        <v>84.82608236721707</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L37" t="n">
-        <v>288.5824344539113</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M37" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N37" t="n">
-        <v>118.5919028498978</v>
+        <v>484.1417040707055</v>
       </c>
       <c r="O37" t="n">
-        <v>487.7220970932223</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P37" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q37" t="n">
-        <v>204.5301020025624</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J38" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K38" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L38" t="n">
-        <v>282.0279592167408</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M38" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N38" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O38" t="n">
         <v>304.6313555079668</v>
       </c>
       <c r="P38" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q38" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976013</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J39" t="n">
-        <v>82.0028860004161</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K39" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L39" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M39" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N39" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O39" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P39" t="n">
-        <v>412.3681386021048</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q39" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575453</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.73997017013478</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
-        <v>173.8134568020363</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M40" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N40" t="n">
-        <v>520.6453602659384</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O40" t="n">
-        <v>487.7220970932223</v>
+        <v>422.9854319991234</v>
       </c>
       <c r="P40" t="n">
-        <v>87.74752192826828</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q40" t="n">
-        <v>204.5301020025624</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J41" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K41" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L41" t="n">
-        <v>282.0279592167412</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M41" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N41" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O41" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P41" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q41" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R41" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351853</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976013</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J42" t="n">
-        <v>82.0028860004161</v>
+        <v>308.741636174055</v>
       </c>
       <c r="K42" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L42" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M42" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N42" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O42" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P42" t="n">
         <v>185.6293884284652</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.1125655360326</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R42" t="n">
-        <v>150.2821591042452</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.73997017013478</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K43" t="n">
-        <v>334.606495613704</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L43" t="n">
-        <v>113.4569607579076</v>
+        <v>355.3468577966648</v>
       </c>
       <c r="M43" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N43" t="n">
-        <v>520.6453602659384</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O43" t="n">
-        <v>326.9290582815545</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P43" t="n">
-        <v>87.74752192826828</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5301020025624</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.7114191840095</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J44" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K44" t="n">
-        <v>222.451577047215</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L44" t="n">
-        <v>282.0279592167408</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M44" t="n">
-        <v>319.0087118458359</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N44" t="n">
-        <v>324.9279233487208</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O44" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P44" t="n">
-        <v>254.332770960268</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q44" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R44" t="n">
-        <v>92.48066619351903</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22234434976013</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J45" t="n">
-        <v>82.0028860004161</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K45" t="n">
-        <v>152.984436854548</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L45" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M45" t="n">
-        <v>252.0998584218302</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N45" t="n">
-        <v>261.1372468800476</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O45" t="n">
-        <v>235.2423749871647</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P45" t="n">
         <v>185.6293884284652</v>
       </c>
       <c r="Q45" t="n">
-        <v>342.6332728945235</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R45" t="n">
-        <v>43.76145174575453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.73997017013478</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K46" t="n">
-        <v>84.82608236721707</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L46" t="n">
-        <v>355.3468577966649</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M46" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N46" t="n">
-        <v>520.6453602659384</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O46" t="n">
-        <v>487.7220970932223</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P46" t="n">
-        <v>87.74752192826828</v>
+        <v>329.6374189670263</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.62757939862404</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
